--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_山中愛望_毎月月初.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_山中愛望_毎月月初.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu0\OneDrive\デスクトップ\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DE115B-725E-43CB-A6E2-997613CF489F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074CF5C2-7005-4004-B65F-34A8C9FC72DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,6 +412,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,9 +463,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,39 +474,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -826,7 +826,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:H37"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -835,60 +835,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="18">
         <f ca="1">TODAY()</f>
-        <v>44987</v>
-      </c>
-      <c r="H3" s="7"/>
+        <v>45018</v>
+      </c>
+      <c r="H3" s="19"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.5" thickBot="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
@@ -910,15 +910,15 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11">
+      <c r="F12" s="21"/>
+      <c r="G12" s="22">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45018</v>
-      </c>
-      <c r="H12" s="12"/>
+        <v>45048</v>
+      </c>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="18.5" thickTop="1">
       <c r="A13" t="s">
@@ -931,186 +931,186 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14">
+      <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="13">
-        <v>7819</v>
+        <v>6910</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14">
+      <c r="A20" s="8">
         <v>2</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14">
+      <c r="A22" s="8">
         <v>3</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14">
+      <c r="A24" s="8">
         <v>4</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14">
+      <c r="A26" s="8">
         <v>5</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14">
+      <c r="A28" s="8">
         <v>6</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14">
+      <c r="A30" s="8">
         <v>7</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="13">
         <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>7819</v>
+        <v>6910</v>
       </c>
       <c r="H32" s="13"/>
     </row>
@@ -1118,87 +1118,61 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="F34" s="16" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="F34" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="13">
-        <v>781</v>
+        <v>690</v>
       </c>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="F36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="12">
         <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>8600</v>
-      </c>
-      <c r="H36" s="18"/>
+        <v>7600</v>
+      </c>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1215,6 +1189,32 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_山中愛望_毎月月初.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_山中愛望_毎月月初.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074CF5C2-7005-4004-B65F-34A8C9FC72DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17511126-02F7-4D82-B238-9D3E4A880B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -412,6 +412,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -426,54 +474,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -829,71 +829,71 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="6">
         <f ca="1">TODAY()</f>
         <v>45018</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.5" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+    <row r="6" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.5" thickTop="1">
+    <row r="7" spans="1:8" ht="19.5" thickTop="1">
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -906,21 +906,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.5" thickBot="1">
+    <row r="12" spans="1:8" ht="19.5" thickBot="1">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22">
+      <c r="F12" s="10"/>
+      <c r="G12" s="11">
         <f ca="1">EDATE(G3,1)</f>
         <v>45048</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.5" thickTop="1">
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" thickTop="1">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -931,31 +931,31 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="8">
+      <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="13">
         <v>6910</v>
       </c>
@@ -963,149 +963,149 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="8">
+      <c r="A20" s="14">
         <v>2</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="8">
+      <c r="A22" s="14">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8">
+      <c r="A24" s="14">
         <v>4</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="8">
+      <c r="A26" s="14">
         <v>5</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8">
+      <c r="A28" s="14">
         <v>6</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8">
+      <c r="A30" s="14">
         <v>7</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="13">
@@ -1118,17 +1118,17 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="F34" s="10" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="F34" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="13">
@@ -1137,42 +1137,68 @@
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="F36" s="11" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="F36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="18">
         <f>IF(G32="","",SUM(G32:H35))</f>
         <v>7600</v>
       </c>
-      <c r="H36" s="12"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1189,32 +1215,6 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
